--- a/biology/Médecine/Odontologue/Odontologue.xlsx
+++ b/biology/Médecine/Odontologue/Odontologue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'odontologue est spécialisé dans l'identification dentaire. Il participe aux enquêtes de police et travaille en collaboration avec le médecin légiste.
 La très grande majorité des odontologues est rattachée à des laboratoires judiciaires et établissent, pour un cadavre, l'état exact de chacune de ses dents. C'est souvent le seul moyen fiable d'établir l'identité d'un corps.
-Carl Ringelmann est le premier à avoir enseigné l'odontologie à l'Université de Wurtzbourg à Nuremberg en 1807[1].
+Carl Ringelmann est le premier à avoir enseigné l'odontologie à l'Université de Wurtzbourg à Nuremberg en 1807.
 </t>
         </is>
       </c>
